--- a/doc/ue_world_physics_tick.xlsx
+++ b/doc/ue_world_physics_tick.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B815F7B8-1D8E-41A3-B7BC-84B02DB7D0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B287C6B5-BBFA-4847-AB0D-909254C1D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="简介" sheetId="1" r:id="rId1"/>
-    <sheet name="物理的开始和等待结束" sheetId="2" r:id="rId2"/>
-    <sheet name="PhysX" sheetId="3" r:id="rId3"/>
+    <sheet name="简介" sheetId="4" r:id="rId1"/>
+    <sheet name="TICK调度" sheetId="1" r:id="rId2"/>
+    <sheet name="物理的开始和等待结束" sheetId="2" r:id="rId3"/>
+    <sheet name="PhysX调度" sheetId="3" r:id="rId4"/>
+    <sheet name="改造" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
   <si>
     <t>if (bDoingActorTicks)</t>
   </si>
@@ -156,244 +158,352 @@
     <t>Target-&gt;StartPhysicsSim();</t>
   </si>
   <si>
+    <t>FGraphEventArray PhysicsComplete = PhysScene-&gt;GetCompletionEvents();</t>
+  </si>
+  <si>
+    <t>if (!PhysScene-&gt;IsCompletionEventComplete())</t>
+  </si>
+  <si>
+    <t>// don't release the next tick group until the physics has completed and we have run FinishPhysicsSim</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FSimpleDelegateGraphTask.FinishPhysicsSim"),</t>
+  </si>
+  <si>
+    <t>STAT_FSimpleDelegateGraphTask_FinishPhysicsSim,</t>
+  </si>
+  <si>
+    <t>STATGROUP_TaskGraphTasks);</t>
+  </si>
+  <si>
+    <t>MyCompletionGraphEvent-&gt;DontCompleteUntil(</t>
+  </si>
+  <si>
+    <t>FSimpleDelegateGraphTask::CreateAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>FSimpleDelegateGraphTask::FDelegate::CreateUObject(Target, &amp;UWorld::FinishPhysicsSim),</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FSimpleDelegateGraphTask_FinishPhysicsSim), &amp;PhysicsComplete, ENamedThreads::GameThread</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>// it was already done, so let just do it.</t>
+  </si>
+  <si>
+    <t>Target-&gt;FinishPhysicsSim();</t>
+  </si>
+  <si>
+    <t>FPhysScene* PhysScene = Target-&gt;GetPhysicsScene();</t>
+  </si>
+  <si>
+    <t>if (PhysScene == NULL)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>开始接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！等待完成信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicsSceneCompletion = TGraphTask&lt;FNullGraphTask&gt;::CreateTask(&amp;FinishPrerequisites, ENamedThreads::GameThread).ConstructAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FNullGraphTask_ProcessPhysScene_Join), PhysSingleThreadedMode() ? ENamedThreads::GameThread : CPrio_PhyXSceneCompletion.Get());</t>
+  </si>
+  <si>
+    <t>这个地方其实是用到了多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAutoConsoleTaskPriority CPrio_PhyXSceneCompletion(</t>
+  </si>
+  <si>
+    <t>TEXT("TaskGraph.TaskPriorities.PhyXSceneCompletion"),</t>
+  </si>
+  <si>
+    <t>TEXT("Task and thread priority for PhysicsSceneCompletion."),</t>
+  </si>
+  <si>
+    <t>ENamedThreads::HighThreadPriority, // if we have high priority task threads, then use them...</t>
+  </si>
+  <si>
+    <t>ENamedThreads::HighTaskPriority, // .. at high task priority</t>
+  </si>
+  <si>
+    <t>ENamedThreads::HighTaskPriority // if we don't have hi pri threads, then use normal priority threads at high task priority instead</t>
+  </si>
+  <si>
+    <t>FGraphEventArray FinishPrerequisites;</t>
+  </si>
+  <si>
+    <t>//Update the collision disable table before ticking</t>
+  </si>
+  <si>
+    <t>FlushDeferredCollisionDisableTableQueue();</t>
+  </si>
+  <si>
+    <t>// Run the sync scene</t>
+  </si>
+  <si>
+    <t>TickPhysScene(PhysicsSubsceneCompletion);</t>
+  </si>
+  <si>
+    <t>FGraphEventArray MainScenePrerequisites;</t>
+  </si>
+  <si>
+    <t>if (PhysicsSubsceneCompletion.GetReference())</t>
+  </si>
+  <si>
+    <t>MainScenePrerequisites.Add(PhysicsSubsceneCompletion);</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FDelegateGraphTask.ProcessPhysScene_Sync"),</t>
+  </si>
+  <si>
+    <t>STAT_FDelegateGraphTask_ProcessPhysScene_Sync,</t>
+  </si>
+  <si>
+    <t>new (FinishPrerequisites)FGraphEventRef(</t>
+  </si>
+  <si>
+    <t>FDelegateGraphTask::CreateAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>FDelegateGraphTask::FDelegate::CreateRaw(this, &amp;FPhysScene_PhysX::SceneCompletionTask),</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FDelegateGraphTask_ProcessPhysScene_Sync), &amp;MainScenePrerequisites,</t>
+  </si>
+  <si>
+    <t>ENamedThreads::GameThread, ENamedThreads::GameThread</t>
+  </si>
+  <si>
+    <t>check(!PhysicsSceneCompletion.GetReference()); // this should have been cleared</t>
+  </si>
+  <si>
+    <t>if (FinishPrerequisites.Num())</t>
+  </si>
+  <si>
+    <t>// #BG Not sure this is needed anymore without async scene</t>
+  </si>
+  <si>
+    <t>if (FinishPrerequisites.Num() &gt; 1)  // we don't need to create a new task if we only have one prerequisite</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FNullGraphTask.ProcessPhysScene_Join"),</t>
+  </si>
+  <si>
+    <t>STAT_FNullGraphTask_ProcessPhysScene_Join,</t>
+  </si>
+  <si>
+    <t>PhysicsSceneCompletion = FinishPrerequisites[0]; // we don't need a join</t>
+  </si>
+  <si>
+    <t>// Query clothing stats from skel mesh components in this world</t>
+  </si>
+  <si>
+    <t>// This is done outside TickPhysScene because clothing is</t>
+  </si>
+  <si>
+    <t>// not related to a scene.</t>
+  </si>
+  <si>
+    <t>GatherClothingStats(this-&gt;OwningWorld);</t>
+  </si>
+  <si>
+    <t>void FPhysScene_PhysX::EndFrame(ULineBatchComponent* InLineBatcher)</t>
+  </si>
+  <si>
+    <t>check(IsInGameThread());</t>
+  </si>
+  <si>
+    <t>PhysicsSceneCompletion = NULL;</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>* At this point physics simulation has finished. We obtain both scene locks so that the various read/write operations needed can be done quickly.</t>
+  </si>
+  <si>
+    <t>* This means that anyone attempting to write on other threads will be blocked. This is OK because accessing any of these game objects from another thread is probably a bad idea!</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>#if WITH_PHYSX</t>
+  </si>
+  <si>
+    <t>SCOPED_SCENE_WRITE_LOCK(GetPxScene());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#endif // WITH_PHYSX </t>
+  </si>
+  <si>
+    <t>// Perform any collision notification events</t>
+  </si>
+  <si>
+    <t>DispatchPhysNotifications_AssumesLocked();</t>
+  </si>
+  <si>
+    <t>#if !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
+  </si>
+  <si>
+    <t>// Handle debug rendering</t>
+  </si>
+  <si>
+    <t>if (InLineBatcher)</t>
+  </si>
+  <si>
+    <t>AddDebugLines(InLineBatcher);</t>
+  </si>
+  <si>
+    <t>#endif // !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
+  </si>
+  <si>
+    <t>多线程的话，用那个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4中的物理更新，是调用的Physic的接口，而Phys内部的实现，使用了多线程的处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE中调用物理更新的时候，是在异步线程进行具体处理的，这个时候，主线程可以继续走，但是在EndPhys时需要强制等待物理线程结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在EndPhys等待物理线程结束的时候，可以进行一些额外的逻辑计算，降低整个TICK耗时（这部分UE没有接口，可以增加一个回调的方式实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体的TICK调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！大部分的逻辑都在这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！开始调用Phys的接口，发起异步的物理计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！会强制确保物理线程运算结束，否则就一直等待（所以说这块可以有效利用起来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！额外的一些处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于物理模块的实现方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/60733992</t>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPhysScene_PhysX::StartFrame()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！内部调用Phys的simulate接口，开始物理线程处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注册完成的事件，内部会调用fetch接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量将等待物理线程完成的时候，进行一部分逻辑操作，这样子能降低整体TICK事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这块没做什么，所以需要在上层处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void FEndPhysicsTickFunction::ExecuteTick(float DeltaTime, enum ELevelTick TickType, ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
-  </si>
-  <si>
-    <t>FGraphEventArray PhysicsComplete = PhysScene-&gt;GetCompletionEvents();</t>
-  </si>
-  <si>
-    <t>if (!PhysScene-&gt;IsCompletionEventComplete())</t>
-  </si>
-  <si>
-    <t>// don't release the next tick group until the physics has completed and we have run FinishPhysicsSim</t>
-  </si>
-  <si>
-    <t>DECLARE_CYCLE_STAT(TEXT("FSimpleDelegateGraphTask.FinishPhysicsSim"),</t>
-  </si>
-  <si>
-    <t>STAT_FSimpleDelegateGraphTask_FinishPhysicsSim,</t>
-  </si>
-  <si>
-    <t>STATGROUP_TaskGraphTasks);</t>
-  </si>
-  <si>
-    <t>MyCompletionGraphEvent-&gt;DontCompleteUntil(</t>
-  </si>
-  <si>
-    <t>FSimpleDelegateGraphTask::CreateAndDispatchWhenReady(</t>
-  </si>
-  <si>
-    <t>FSimpleDelegateGraphTask::FDelegate::CreateUObject(Target, &amp;UWorld::FinishPhysicsSim),</t>
-  </si>
-  <si>
-    <t>GET_STATID(STAT_FSimpleDelegateGraphTask_FinishPhysicsSim), &amp;PhysicsComplete, ENamedThreads::GameThread</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>// it was already done, so let just do it.</t>
-  </si>
-  <si>
-    <t>Target-&gt;FinishPhysicsSim();</t>
-  </si>
-  <si>
-    <t>FPhysScene* PhysScene = Target-&gt;GetPhysicsScene();</t>
-  </si>
-  <si>
-    <t>if (PhysScene == NULL)</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>开始接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！等待完成信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicsSceneCompletion = TGraphTask&lt;FNullGraphTask&gt;::CreateTask(&amp;FinishPrerequisites, ENamedThreads::GameThread).ConstructAndDispatchWhenReady(</t>
-  </si>
-  <si>
-    <t>GET_STATID(STAT_FNullGraphTask_ProcessPhysScene_Join), PhysSingleThreadedMode() ? ENamedThreads::GameThread : CPrio_PhyXSceneCompletion.Get());</t>
-  </si>
-  <si>
-    <t>这个地方其实是用到了多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAutoConsoleTaskPriority CPrio_PhyXSceneCompletion(</t>
-  </si>
-  <si>
-    <t>TEXT("TaskGraph.TaskPriorities.PhyXSceneCompletion"),</t>
-  </si>
-  <si>
-    <t>TEXT("Task and thread priority for PhysicsSceneCompletion."),</t>
-  </si>
-  <si>
-    <t>ENamedThreads::HighThreadPriority, // if we have high priority task threads, then use them...</t>
-  </si>
-  <si>
-    <t>ENamedThreads::HighTaskPriority, // .. at high task priority</t>
-  </si>
-  <si>
-    <t>ENamedThreads::HighTaskPriority // if we don't have hi pri threads, then use normal priority threads at high task priority instead</t>
-  </si>
-  <si>
-    <t>void FPhysScene_PhysX::StartFrame()</t>
-  </si>
-  <si>
-    <t>FGraphEventArray FinishPrerequisites;</t>
-  </si>
-  <si>
-    <t>//Update the collision disable table before ticking</t>
-  </si>
-  <si>
-    <t>FlushDeferredCollisionDisableTableQueue();</t>
-  </si>
-  <si>
-    <t>// Run the sync scene</t>
-  </si>
-  <si>
-    <t>TickPhysScene(PhysicsSubsceneCompletion);</t>
-  </si>
-  <si>
-    <t>FGraphEventArray MainScenePrerequisites;</t>
-  </si>
-  <si>
-    <t>if (PhysicsSubsceneCompletion.GetReference())</t>
-  </si>
-  <si>
-    <t>MainScenePrerequisites.Add(PhysicsSubsceneCompletion);</t>
-  </si>
-  <si>
-    <t>DECLARE_CYCLE_STAT(TEXT("FDelegateGraphTask.ProcessPhysScene_Sync"),</t>
-  </si>
-  <si>
-    <t>STAT_FDelegateGraphTask_ProcessPhysScene_Sync,</t>
-  </si>
-  <si>
-    <t>new (FinishPrerequisites)FGraphEventRef(</t>
-  </si>
-  <si>
-    <t>FDelegateGraphTask::CreateAndDispatchWhenReady(</t>
-  </si>
-  <si>
-    <t>FDelegateGraphTask::FDelegate::CreateRaw(this, &amp;FPhysScene_PhysX::SceneCompletionTask),</t>
-  </si>
-  <si>
-    <t>GET_STATID(STAT_FDelegateGraphTask_ProcessPhysScene_Sync), &amp;MainScenePrerequisites,</t>
-  </si>
-  <si>
-    <t>ENamedThreads::GameThread, ENamedThreads::GameThread</t>
-  </si>
-  <si>
-    <t>check(!PhysicsSceneCompletion.GetReference()); // this should have been cleared</t>
-  </si>
-  <si>
-    <t>if (FinishPrerequisites.Num())</t>
-  </si>
-  <si>
-    <t>// #BG Not sure this is needed anymore without async scene</t>
-  </si>
-  <si>
-    <t>if (FinishPrerequisites.Num() &gt; 1)  // we don't need to create a new task if we only have one prerequisite</t>
-  </si>
-  <si>
-    <t>DECLARE_CYCLE_STAT(TEXT("FNullGraphTask.ProcessPhysScene_Join"),</t>
-  </si>
-  <si>
-    <t>STAT_FNullGraphTask_ProcessPhysScene_Join,</t>
-  </si>
-  <si>
-    <t>PhysicsSceneCompletion = FinishPrerequisites[0]; // we don't need a join</t>
-  </si>
-  <si>
-    <t>// Query clothing stats from skel mesh components in this world</t>
-  </si>
-  <si>
-    <t>// This is done outside TickPhysScene because clothing is</t>
-  </si>
-  <si>
-    <t>// not related to a scene.</t>
-  </si>
-  <si>
-    <t>GatherClothingStats(this-&gt;OwningWorld);</t>
-  </si>
-  <si>
-    <t>void FPhysScene_PhysX::EndFrame(ULineBatchComponent* InLineBatcher)</t>
-  </si>
-  <si>
-    <t>check(IsInGameThread());</t>
-  </si>
-  <si>
-    <t>PhysicsSceneCompletion = NULL;</t>
-  </si>
-  <si>
-    <t>/**</t>
-  </si>
-  <si>
-    <t>* At this point physics simulation has finished. We obtain both scene locks so that the various read/write operations needed can be done quickly.</t>
-  </si>
-  <si>
-    <t>* This means that anyone attempting to write on other threads will be blocked. This is OK because accessing any of these game objects from another thread is probably a bad idea!</t>
-  </si>
-  <si>
-    <t>*/</t>
-  </si>
-  <si>
-    <t>#if WITH_PHYSX</t>
-  </si>
-  <si>
-    <t>SCOPED_SCENE_WRITE_LOCK(GetPxScene());</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#endif // WITH_PHYSX </t>
-  </si>
-  <si>
-    <t>// Perform any collision notification events</t>
-  </si>
-  <si>
-    <t>DispatchPhysNotifications_AssumesLocked();</t>
-  </si>
-  <si>
-    <t>#if !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
-  </si>
-  <si>
-    <t>// Handle debug rendering</t>
-  </si>
-  <si>
-    <t>if (InLineBatcher)</t>
-  </si>
-  <si>
-    <t>AddDebugLines(InLineBatcher);</t>
-  </si>
-  <si>
-    <t>#endif // !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
-  </si>
-  <si>
-    <t>多线程的话，用那个线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！否则直接调用完成处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！其实可以在这部分里面增加一个POST回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！将部分逻辑放在这个地方处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个很重要，将各种FTickFunction，注册为TASK；这样子后面才能有依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，这个事件的Event添加到了最外层的TickCompletionEvents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTickTaskManagerInterface::Get().EndFrame();</t>
+  </si>
+  <si>
+    <t>！！！物理完成了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！物理还没完，是否可以夹杂其他的处理？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建立一个Task，绑定在MyCompletionGraphEvents上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个阶段里面会死等他结束；但是和当前TASKFunction已经没有关系了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +511,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +542,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -453,10 +572,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -472,6 +592,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E520C972-3B97-9E91-B339-9AB9BADE4EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="2171700"/>
+          <a:ext cx="190500" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -736,231 +922,308 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:D54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE14BE03-DC58-4072-A3C8-C1A83AF8E27F}">
+  <dimension ref="B3:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="O11" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="O19" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="O28" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="O41" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="O47" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>12</v>
       </c>
@@ -988,6 +1251,11 @@
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -997,19 +1265,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D6DBE-A41A-4CDF-9796-4333BAAE6FC6}">
   <dimension ref="B4:V42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -1049,22 +1317,22 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.2">
@@ -1074,7 +1342,7 @@
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.2">
@@ -1084,19 +1352,19 @@
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T24" s="1"/>
     </row>
@@ -1105,88 +1373,104 @@
         <v>1</v>
       </c>
       <c r="R25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="Q30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
+    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="G34" t="s">
+      <c r="S34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
+    <row r="36" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
+    <row r="37" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
+    <row r="39" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="41" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="Q41" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>12</v>
       </c>
@@ -1197,396 +1481,605 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D446AB9B-AEE8-4C5B-A3F6-3DA7A8F72241}">
-  <dimension ref="B5:U98"/>
+  <dimension ref="A5:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8278D58-737F-4B77-9E92-A45EF70A458E}">
+  <dimension ref="B3:T31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="G40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="F41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E53" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="F57" t="s">
-        <v>65</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="E61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="D62" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+        <v>56</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>

--- a/doc/ue_world_physics_tick.xlsx
+++ b/doc/ue_world_physics_tick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B287C6B5-BBFA-4847-AB0D-909254C1D127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B12E67-77C4-4FCD-828E-F155206B7A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="158">
   <si>
     <t>if (bDoingActorTicks)</t>
   </si>
@@ -88,422 +88,459 @@
     <t>CSV_SCOPED_SET_WAIT_STAT(StartPhysics);</t>
   </si>
   <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_TG_DuringPhysics);</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TG_DuringPhysics"), 10);</t>
+  </si>
+  <si>
+    <t>CSV_SCOPED_SET_WAIT_STAT(DuringPhysics);</t>
+  </si>
+  <si>
+    <t>RunTickGroup(TG_DuringPhysics, false); // No wait here, we should run until idle though. We don't care if all of the async ticks are done before we start running post-phys stuff</t>
+  </si>
+  <si>
+    <t>TickGroup = TG_EndPhysics; // set this here so the current tick group is correct during collision notifies, though I am not sure it matters. 'cause of the false up there^^^</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_TG_EndPhysics);</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TG_EndPhysics"), 10);</t>
+  </si>
+  <si>
+    <t>CSV_SCOPED_SET_WAIT_STAT(EndPhysics);</t>
+  </si>
+  <si>
+    <t>RunTickGroup(TG_EndPhysics);</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_TG_PostPhysics);</t>
+  </si>
+  <si>
+    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TG_PostPhysics"), 10);</t>
+  </si>
+  <si>
+    <t>CSV_SCOPED_SET_WAIT_STAT(PostPhysics);</t>
+  </si>
+  <si>
+    <t>RunTickGroup(TG_PostPhysics);</t>
+  </si>
+  <si>
+    <t>else if( bIsPaused )</t>
+  </si>
+  <si>
+    <t>FTickTaskManagerInterface::Get().RunPauseFrame(this, DeltaSeconds, LEVELTICK_PauseTick, LevelsToTick);</t>
+  </si>
+  <si>
+    <t>void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )</t>
+  </si>
+  <si>
+    <t>World调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(FStartPhysicsTickFunction_ExecuteTick);</t>
+  </si>
+  <si>
+    <t>CSV_SCOPED_TIMING_STAT_EXCLUSIVE(Physics);</t>
+  </si>
+  <si>
+    <t>check(Target);</t>
+  </si>
+  <si>
+    <t>Target-&gt;StartPhysicsSim();</t>
+  </si>
+  <si>
+    <t>FGraphEventArray PhysicsComplete = PhysScene-&gt;GetCompletionEvents();</t>
+  </si>
+  <si>
+    <t>if (!PhysScene-&gt;IsCompletionEventComplete())</t>
+  </si>
+  <si>
+    <t>// don't release the next tick group until the physics has completed and we have run FinishPhysicsSim</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FSimpleDelegateGraphTask.FinishPhysicsSim"),</t>
+  </si>
+  <si>
+    <t>STAT_FSimpleDelegateGraphTask_FinishPhysicsSim,</t>
+  </si>
+  <si>
+    <t>STATGROUP_TaskGraphTasks);</t>
+  </si>
+  <si>
+    <t>MyCompletionGraphEvent-&gt;DontCompleteUntil(</t>
+  </si>
+  <si>
+    <t>FSimpleDelegateGraphTask::CreateAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>FSimpleDelegateGraphTask::FDelegate::CreateUObject(Target, &amp;UWorld::FinishPhysicsSim),</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FSimpleDelegateGraphTask_FinishPhysicsSim), &amp;PhysicsComplete, ENamedThreads::GameThread</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>// it was already done, so let just do it.</t>
+  </si>
+  <si>
+    <t>Target-&gt;FinishPhysicsSim();</t>
+  </si>
+  <si>
+    <t>FPhysScene* PhysScene = Target-&gt;GetPhysicsScene();</t>
+  </si>
+  <si>
+    <t>if (PhysScene == NULL)</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>开始接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！等待完成信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicsSceneCompletion = TGraphTask&lt;FNullGraphTask&gt;::CreateTask(&amp;FinishPrerequisites, ENamedThreads::GameThread).ConstructAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FNullGraphTask_ProcessPhysScene_Join), PhysSingleThreadedMode() ? ENamedThreads::GameThread : CPrio_PhyXSceneCompletion.Get());</t>
+  </si>
+  <si>
+    <t>这个地方其实是用到了多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAutoConsoleTaskPriority CPrio_PhyXSceneCompletion(</t>
+  </si>
+  <si>
+    <t>TEXT("TaskGraph.TaskPriorities.PhyXSceneCompletion"),</t>
+  </si>
+  <si>
+    <t>TEXT("Task and thread priority for PhysicsSceneCompletion."),</t>
+  </si>
+  <si>
+    <t>ENamedThreads::HighThreadPriority, // if we have high priority task threads, then use them...</t>
+  </si>
+  <si>
+    <t>ENamedThreads::HighTaskPriority, // .. at high task priority</t>
+  </si>
+  <si>
+    <t>ENamedThreads::HighTaskPriority // if we don't have hi pri threads, then use normal priority threads at high task priority instead</t>
+  </si>
+  <si>
+    <t>FGraphEventArray FinishPrerequisites;</t>
+  </si>
+  <si>
+    <t>//Update the collision disable table before ticking</t>
+  </si>
+  <si>
+    <t>FlushDeferredCollisionDisableTableQueue();</t>
+  </si>
+  <si>
+    <t>// Run the sync scene</t>
+  </si>
+  <si>
+    <t>TickPhysScene(PhysicsSubsceneCompletion);</t>
+  </si>
+  <si>
+    <t>FGraphEventArray MainScenePrerequisites;</t>
+  </si>
+  <si>
+    <t>if (PhysicsSubsceneCompletion.GetReference())</t>
+  </si>
+  <si>
+    <t>MainScenePrerequisites.Add(PhysicsSubsceneCompletion);</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FDelegateGraphTask.ProcessPhysScene_Sync"),</t>
+  </si>
+  <si>
+    <t>STAT_FDelegateGraphTask_ProcessPhysScene_Sync,</t>
+  </si>
+  <si>
+    <t>new (FinishPrerequisites)FGraphEventRef(</t>
+  </si>
+  <si>
+    <t>FDelegateGraphTask::CreateAndDispatchWhenReady(</t>
+  </si>
+  <si>
+    <t>FDelegateGraphTask::FDelegate::CreateRaw(this, &amp;FPhysScene_PhysX::SceneCompletionTask),</t>
+  </si>
+  <si>
+    <t>GET_STATID(STAT_FDelegateGraphTask_ProcessPhysScene_Sync), &amp;MainScenePrerequisites,</t>
+  </si>
+  <si>
+    <t>ENamedThreads::GameThread, ENamedThreads::GameThread</t>
+  </si>
+  <si>
+    <t>check(!PhysicsSceneCompletion.GetReference()); // this should have been cleared</t>
+  </si>
+  <si>
+    <t>if (FinishPrerequisites.Num())</t>
+  </si>
+  <si>
+    <t>// #BG Not sure this is needed anymore without async scene</t>
+  </si>
+  <si>
+    <t>if (FinishPrerequisites.Num() &gt; 1)  // we don't need to create a new task if we only have one prerequisite</t>
+  </si>
+  <si>
+    <t>DECLARE_CYCLE_STAT(TEXT("FNullGraphTask.ProcessPhysScene_Join"),</t>
+  </si>
+  <si>
+    <t>STAT_FNullGraphTask_ProcessPhysScene_Join,</t>
+  </si>
+  <si>
+    <t>PhysicsSceneCompletion = FinishPrerequisites[0]; // we don't need a join</t>
+  </si>
+  <si>
+    <t>// Query clothing stats from skel mesh components in this world</t>
+  </si>
+  <si>
+    <t>// This is done outside TickPhysScene because clothing is</t>
+  </si>
+  <si>
+    <t>// not related to a scene.</t>
+  </si>
+  <si>
+    <t>GatherClothingStats(this-&gt;OwningWorld);</t>
+  </si>
+  <si>
+    <t>void FPhysScene_PhysX::EndFrame(ULineBatchComponent* InLineBatcher)</t>
+  </si>
+  <si>
+    <t>check(IsInGameThread());</t>
+  </si>
+  <si>
+    <t>PhysicsSceneCompletion = NULL;</t>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>* At this point physics simulation has finished. We obtain both scene locks so that the various read/write operations needed can be done quickly.</t>
+  </si>
+  <si>
+    <t>* This means that anyone attempting to write on other threads will be blocked. This is OK because accessing any of these game objects from another thread is probably a bad idea!</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>#if WITH_PHYSX</t>
+  </si>
+  <si>
+    <t>SCOPED_SCENE_WRITE_LOCK(GetPxScene());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#endif // WITH_PHYSX </t>
+  </si>
+  <si>
+    <t>// Perform any collision notification events</t>
+  </si>
+  <si>
+    <t>DispatchPhysNotifications_AssumesLocked();</t>
+  </si>
+  <si>
+    <t>#if !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
+  </si>
+  <si>
+    <t>// Handle debug rendering</t>
+  </si>
+  <si>
+    <t>if (InLineBatcher)</t>
+  </si>
+  <si>
+    <t>AddDebugLines(InLineBatcher);</t>
+  </si>
+  <si>
+    <t>#endif // !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
+  </si>
+  <si>
+    <t>多线程的话，用那个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4中的物理更新，是调用的Physic的接口，而Phys内部的实现，使用了多线程的处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE中调用物理更新的时候，是在异步线程进行具体处理的，这个时候，主线程可以继续走，但是在EndPhys时需要强制等待物理线程结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在EndPhys等待物理线程结束的时候，可以进行一些额外的逻辑计算，降低整个TICK耗时（这部分UE没有接口，可以增加一个回调的方式实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体的TICK调度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！大部分的逻辑都在这个地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！开始调用Phys的接口，发起异步的物理计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！会强制确保物理线程运算结束，否则就一直等待（所以说这块可以有效利用起来）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！额外的一些处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于物理模块的实现方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/60733992</t>
+  </si>
+  <si>
+    <t>结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPhysScene_PhysX::StartFrame()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！内部调用Phys的simulate接口，开始物理线程处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注册完成的事件，内部会调用fetch接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量将等待物理线程完成的时候，进行一部分逻辑操作，这样子能降低整体TICK事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这块没做什么，所以需要在上层处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FEndPhysicsTickFunction::ExecuteTick(float DeltaTime, enum ELevelTick TickType, ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！否则直接调用完成处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！其实可以在这部分里面增加一个POST回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！将部分逻辑放在这个地方处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个很重要，将各种FTickFunction，注册为TASK；这样子后面才能有依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！注意，这个事件的Event添加到了最外层的TickCompletionEvents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTickTaskManagerInterface::Get().EndFrame();</t>
+  </si>
+  <si>
+    <t>！！！物理完成了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！物理还没完，是否可以夹杂其他的处理？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建立一个Task，绑定在MyCompletionGraphEvents上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个阶段里面会死等他结束；但是和当前TASKFunction已经没有关系了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RunTickGroup(TG_StartPhysics);</t>
-  </si>
-  <si>
-    <t>SCOPE_CYCLE_COUNTER(STAT_TG_DuringPhysics);</t>
-  </si>
-  <si>
-    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TG_DuringPhysics"), 10);</t>
-  </si>
-  <si>
-    <t>CSV_SCOPED_SET_WAIT_STAT(DuringPhysics);</t>
-  </si>
-  <si>
-    <t>RunTickGroup(TG_DuringPhysics, false); // No wait here, we should run until idle though. We don't care if all of the async ticks are done before we start running post-phys stuff</t>
-  </si>
-  <si>
-    <t>TickGroup = TG_EndPhysics; // set this here so the current tick group is correct during collision notifies, though I am not sure it matters. 'cause of the false up there^^^</t>
-  </si>
-  <si>
-    <t>SCOPE_CYCLE_COUNTER(STAT_TG_EndPhysics);</t>
-  </si>
-  <si>
-    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TG_EndPhysics"), 10);</t>
-  </si>
-  <si>
-    <t>CSV_SCOPED_SET_WAIT_STAT(EndPhysics);</t>
-  </si>
-  <si>
-    <t>RunTickGroup(TG_EndPhysics);</t>
-  </si>
-  <si>
-    <t>SCOPE_CYCLE_COUNTER(STAT_TG_PostPhysics);</t>
-  </si>
-  <si>
-    <t>SCOPE_TIME_GUARD_MS(TEXT("UWorld::Tick - TG_PostPhysics"), 10);</t>
-  </si>
-  <si>
-    <t>CSV_SCOPED_SET_WAIT_STAT(PostPhysics);</t>
-  </si>
-  <si>
-    <t>RunTickGroup(TG_PostPhysics);</t>
-  </si>
-  <si>
-    <t>else if( bIsPaused )</t>
-  </si>
-  <si>
-    <t>FTickTaskManagerInterface::Get().RunPauseFrame(this, DeltaSeconds, LEVELTICK_PauseTick, LevelsToTick);</t>
-  </si>
-  <si>
-    <t>void UWorld::Tick( ELevelTick TickType, float DeltaSeconds )</t>
-  </si>
-  <si>
-    <t>World调度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>void FStartPhysicsTickFunction::ExecuteTick(float DeltaTime, enum ELevelTick TickType, ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
-  </si>
-  <si>
-    <t>QUICK_SCOPE_CYCLE_COUNTER(FStartPhysicsTickFunction_ExecuteTick);</t>
-  </si>
-  <si>
-    <t>CSV_SCOPED_TIMING_STAT_EXCLUSIVE(Physics);</t>
-  </si>
-  <si>
-    <t>check(Target);</t>
-  </si>
-  <si>
-    <t>Target-&gt;StartPhysicsSim();</t>
-  </si>
-  <si>
-    <t>FGraphEventArray PhysicsComplete = PhysScene-&gt;GetCompletionEvents();</t>
-  </si>
-  <si>
-    <t>if (!PhysScene-&gt;IsCompletionEventComplete())</t>
-  </si>
-  <si>
-    <t>// don't release the next tick group until the physics has completed and we have run FinishPhysicsSim</t>
-  </si>
-  <si>
-    <t>DECLARE_CYCLE_STAT(TEXT("FSimpleDelegateGraphTask.FinishPhysicsSim"),</t>
-  </si>
-  <si>
-    <t>STAT_FSimpleDelegateGraphTask_FinishPhysicsSim,</t>
-  </si>
-  <si>
-    <t>STATGROUP_TaskGraphTasks);</t>
-  </si>
-  <si>
-    <t>MyCompletionGraphEvent-&gt;DontCompleteUntil(</t>
-  </si>
-  <si>
-    <t>FSimpleDelegateGraphTask::CreateAndDispatchWhenReady(</t>
-  </si>
-  <si>
-    <t>FSimpleDelegateGraphTask::FDelegate::CreateUObject(Target, &amp;UWorld::FinishPhysicsSim),</t>
-  </si>
-  <si>
-    <t>GET_STATID(STAT_FSimpleDelegateGraphTask_FinishPhysicsSim), &amp;PhysicsComplete, ENamedThreads::GameThread</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>else</t>
-  </si>
-  <si>
-    <t>// it was already done, so let just do it.</t>
-  </si>
-  <si>
-    <t>Target-&gt;FinishPhysicsSim();</t>
-  </si>
-  <si>
-    <t>FPhysScene* PhysScene = Target-&gt;GetPhysicsScene();</t>
-  </si>
-  <si>
-    <t>if (PhysScene == NULL)</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>开始接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！等待完成信号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicsSceneCompletion = TGraphTask&lt;FNullGraphTask&gt;::CreateTask(&amp;FinishPrerequisites, ENamedThreads::GameThread).ConstructAndDispatchWhenReady(</t>
-  </si>
-  <si>
-    <t>GET_STATID(STAT_FNullGraphTask_ProcessPhysScene_Join), PhysSingleThreadedMode() ? ENamedThreads::GameThread : CPrio_PhyXSceneCompletion.Get());</t>
-  </si>
-  <si>
-    <t>这个地方其实是用到了多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAutoConsoleTaskPriority CPrio_PhyXSceneCompletion(</t>
-  </si>
-  <si>
-    <t>TEXT("TaskGraph.TaskPriorities.PhyXSceneCompletion"),</t>
-  </si>
-  <si>
-    <t>TEXT("Task and thread priority for PhysicsSceneCompletion."),</t>
-  </si>
-  <si>
-    <t>ENamedThreads::HighThreadPriority, // if we have high priority task threads, then use them...</t>
-  </si>
-  <si>
-    <t>ENamedThreads::HighTaskPriority, // .. at high task priority</t>
-  </si>
-  <si>
-    <t>ENamedThreads::HighTaskPriority // if we don't have hi pri threads, then use normal priority threads at high task priority instead</t>
-  </si>
-  <si>
-    <t>FGraphEventArray FinishPrerequisites;</t>
-  </si>
-  <si>
-    <t>//Update the collision disable table before ticking</t>
-  </si>
-  <si>
-    <t>FlushDeferredCollisionDisableTableQueue();</t>
-  </si>
-  <si>
-    <t>// Run the sync scene</t>
-  </si>
-  <si>
-    <t>TickPhysScene(PhysicsSubsceneCompletion);</t>
-  </si>
-  <si>
-    <t>FGraphEventArray MainScenePrerequisites;</t>
-  </si>
-  <si>
-    <t>if (PhysicsSubsceneCompletion.GetReference())</t>
-  </si>
-  <si>
-    <t>MainScenePrerequisites.Add(PhysicsSubsceneCompletion);</t>
-  </si>
-  <si>
-    <t>DECLARE_CYCLE_STAT(TEXT("FDelegateGraphTask.ProcessPhysScene_Sync"),</t>
-  </si>
-  <si>
-    <t>STAT_FDelegateGraphTask_ProcessPhysScene_Sync,</t>
-  </si>
-  <si>
-    <t>new (FinishPrerequisites)FGraphEventRef(</t>
-  </si>
-  <si>
-    <t>FDelegateGraphTask::CreateAndDispatchWhenReady(</t>
-  </si>
-  <si>
-    <t>FDelegateGraphTask::FDelegate::CreateRaw(this, &amp;FPhysScene_PhysX::SceneCompletionTask),</t>
-  </si>
-  <si>
-    <t>GET_STATID(STAT_FDelegateGraphTask_ProcessPhysScene_Sync), &amp;MainScenePrerequisites,</t>
-  </si>
-  <si>
-    <t>ENamedThreads::GameThread, ENamedThreads::GameThread</t>
-  </si>
-  <si>
-    <t>check(!PhysicsSceneCompletion.GetReference()); // this should have been cleared</t>
-  </si>
-  <si>
-    <t>if (FinishPrerequisites.Num())</t>
-  </si>
-  <si>
-    <t>// #BG Not sure this is needed anymore without async scene</t>
-  </si>
-  <si>
-    <t>if (FinishPrerequisites.Num() &gt; 1)  // we don't need to create a new task if we only have one prerequisite</t>
-  </si>
-  <si>
-    <t>DECLARE_CYCLE_STAT(TEXT("FNullGraphTask.ProcessPhysScene_Join"),</t>
-  </si>
-  <si>
-    <t>STAT_FNullGraphTask_ProcessPhysScene_Join,</t>
-  </si>
-  <si>
-    <t>PhysicsSceneCompletion = FinishPrerequisites[0]; // we don't need a join</t>
-  </si>
-  <si>
-    <t>// Query clothing stats from skel mesh components in this world</t>
-  </si>
-  <si>
-    <t>// This is done outside TickPhysScene because clothing is</t>
-  </si>
-  <si>
-    <t>// not related to a scene.</t>
-  </si>
-  <si>
-    <t>GatherClothingStats(this-&gt;OwningWorld);</t>
-  </si>
-  <si>
-    <t>void FPhysScene_PhysX::EndFrame(ULineBatchComponent* InLineBatcher)</t>
-  </si>
-  <si>
-    <t>check(IsInGameThread());</t>
-  </si>
-  <si>
-    <t>PhysicsSceneCompletion = NULL;</t>
-  </si>
-  <si>
-    <t>/**</t>
-  </si>
-  <si>
-    <t>* At this point physics simulation has finished. We obtain both scene locks so that the various read/write operations needed can be done quickly.</t>
-  </si>
-  <si>
-    <t>* This means that anyone attempting to write on other threads will be blocked. This is OK because accessing any of these game objects from another thread is probably a bad idea!</t>
-  </si>
-  <si>
-    <t>*/</t>
-  </si>
-  <si>
-    <t>#if WITH_PHYSX</t>
-  </si>
-  <si>
-    <t>SCOPED_SCENE_WRITE_LOCK(GetPxScene());</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#endif // WITH_PHYSX </t>
-  </si>
-  <si>
-    <t>// Perform any collision notification events</t>
-  </si>
-  <si>
-    <t>DispatchPhysNotifications_AssumesLocked();</t>
-  </si>
-  <si>
-    <t>#if !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
-  </si>
-  <si>
-    <t>// Handle debug rendering</t>
-  </si>
-  <si>
-    <t>if (InLineBatcher)</t>
-  </si>
-  <si>
-    <t>AddDebugLines(InLineBatcher);</t>
-  </si>
-  <si>
-    <t>#endif // !(UE_BUILD_SHIPPING || UE_BUILD_TEST)</t>
-  </si>
-  <si>
-    <t>多线程的话，用那个线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE4中的物理更新，是调用的Physic的接口，而Phys内部的实现，使用了多线程的处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UE中调用物理更新的时候，是在异步线程进行具体处理的，这个时候，主线程可以继续走，但是在EndPhys时需要强制等待物理线程结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在EndPhys等待物理线程结束的时候，可以进行一些额外的逻辑计算，降低整个TICK耗时（这部分UE没有接口，可以增加一个回调的方式实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体的TICK调度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！大部分的逻辑都在这个地方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！开始调用Phys的接口，发起异步的物理计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！会强制确保物理线程运算结束，否则就一直等待（所以说这块可以有效利用起来）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！额外的一些处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于物理模块的实现方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/60733992</t>
-  </si>
-  <si>
-    <t>结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FPhysScene_PhysX::StartFrame()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！内部调用Phys的simulate接口，开始物理线程处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！注册完成的事件，内部会调用fetch接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽量将等待物理线程完成的时候，进行一部分逻辑操作，这样子能降低整体TICK事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这块没做什么，所以需要在上层处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FEndPhysicsTickFunction::ExecuteTick(float DeltaTime, enum ELevelTick TickType, ENamedThreads::Type CurrentThread, const FGraphEventRef&amp; MyCompletionGraphEvent)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！否则直接调用完成处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！其实可以在这部分里面增加一个POST回调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！将部分逻辑放在这个地方处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！这个很重要，将各种FTickFunction，注册为TASK；这样子后面才能有依赖关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！注意，这个事件的Event添加到了最外层的TickCompletionEvents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTickTaskManagerInterface::Get().EndFrame();</t>
-  </si>
-  <si>
-    <t>！！！物理完成了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！物理还没完，是否可以夹杂其他的处理？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建立一个Task，绑定在MyCompletionGraphEvents上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个阶段里面会死等他结束；但是和当前TASKFunction已经没有关系了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::StartPhysicsSim()</t>
+  </si>
+  <si>
+    <t>FPhysScene* PhysScene = GetPhysicsScene();</t>
+  </si>
+  <si>
+    <t>PhysScene-&gt;StartFrame();</t>
+  </si>
+  <si>
+    <t>开始物理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::FinishPhysicsSim()</t>
+  </si>
+  <si>
+    <t>#if WITH_CHAOS</t>
+  </si>
+  <si>
+    <t>PhysScene-&gt;EndFrame();</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>PhysScene-&gt;EndFrame(LineBatcher);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>执行结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,12 +970,12 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -946,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -954,17 +991,17 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -979,25 +1016,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1025,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1033,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1071,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.2">
@@ -1116,10 +1153,10 @@
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.2">
@@ -1134,22 +1171,22 @@
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.2">
@@ -1159,7 +1196,7 @@
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.2">
@@ -1169,25 +1206,25 @@
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.2">
@@ -1202,25 +1239,25 @@
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.2">
@@ -1235,7 +1272,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -1245,7 +1282,7 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -1255,7 +1292,7 @@
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1267,211 +1304,340 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361D6DBE-A41A-4CDF-9796-4333BAAE6FC6}">
-  <dimension ref="B4:V42"/>
+  <dimension ref="A4:V73"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:M44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="R37" s="1"/>
+      <c r="S37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+    <row r="39" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="V39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="Q43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+      <c r="S47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-      <c r="V26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="F28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="Q30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
-      <c r="F32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="G34" t="s">
-        <v>51</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="35" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="F35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="4:19" x14ac:dyDescent="0.2">
-      <c r="D42" t="s">
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D73" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1496,54 +1662,54 @@
   <sheetData>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.2">
@@ -1553,30 +1719,30 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.2">
@@ -1586,12 +1752,12 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.2">
@@ -1601,60 +1767,60 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.2">
       <c r="F37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.2">
@@ -1669,12 +1835,12 @@
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.2">
@@ -1684,12 +1850,12 @@
     </row>
     <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="3:21" x14ac:dyDescent="0.2">
@@ -1699,30 +1865,30 @@
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="F57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="3:21" x14ac:dyDescent="0.2">
@@ -1732,7 +1898,7 @@
     </row>
     <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="3:21" x14ac:dyDescent="0.2">
@@ -1742,7 +1908,7 @@
     </row>
     <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="3:21" x14ac:dyDescent="0.2">
@@ -1757,22 +1923,22 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.2">
@@ -1782,15 +1948,15 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -1800,72 +1966,72 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
@@ -1875,7 +2041,7 @@
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -1885,7 +2051,7 @@
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
@@ -1903,30 +2069,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8278D58-737F-4B77-9E92-A45EF70A458E}">
   <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
@@ -1936,7 +2102,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
@@ -1946,12 +2112,12 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
@@ -1959,34 +2125,34 @@
         <v>1</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
     <row r="17" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1997,46 +2163,46 @@
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="T21" s="2"/>
     </row>
     <row r="22" spans="4:20" x14ac:dyDescent="0.2">
       <c r="G22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="T22" s="2"/>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.2">
       <c r="G23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -2050,7 +2216,7 @@
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -2064,17 +2230,17 @@
     </row>
     <row r="29" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T30" s="2"/>
     </row>
